--- a/algorithms_results/Yardens_results/MultiProcessing_subgroups_results_delta_15000_0.xlsx
+++ b/algorithms_results/Yardens_results/MultiProcessing_subgroups_results_delta_15000_0.xlsx
@@ -534,487 +534,487 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24271</v>
+        <v>20675</v>
       </c>
       <c r="C2" t="n">
-        <v>11442.32763080001</v>
+        <v>9822.513984659707</v>
       </c>
       <c r="D2" t="n">
-        <v>-1520.921870122134</v>
+        <v>-3140.735516262439</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25010</v>
+        <v>15077</v>
       </c>
       <c r="C3" t="n">
-        <v>12118.41632988031</v>
+        <v>20114.57186124945</v>
       </c>
       <c r="D3" t="n">
-        <v>-844.833171041837</v>
+        <v>7151.322360327307</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2)}</t>
+          <t>{'Student': np.int64(1), 'DevType': np.int64(2)}</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18141</v>
+        <v>15397</v>
       </c>
       <c r="C4" t="n">
-        <v>20428.79458652144</v>
+        <v>12458.93044835459</v>
       </c>
       <c r="D4" t="n">
-        <v>7465.545085599289</v>
+        <v>-504.3190525675527</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>{'DevType': np.int64(2)}</t>
+          <t>{'Gender': np.int64(1), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>17900</v>
+        <v>23188</v>
       </c>
       <c r="C5" t="n">
-        <v>12666.05425130746</v>
+        <v>10204.27301983108</v>
       </c>
       <c r="D5" t="n">
-        <v>-297.1952496146841</v>
+        <v>-2758.976481091066</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>{'HoursComputer': np.int64(2)}</t>
+          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>16618</v>
+        <v>23264</v>
       </c>
       <c r="C6" t="n">
-        <v>11665.80607096392</v>
+        <v>10145.98630245002</v>
       </c>
       <c r="D6" t="n">
-        <v>-1297.443429958223</v>
+        <v>-2817.263198472123</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>{'Gender': np.int64(1)}</t>
+          <t>{'Dependents': np.int64(2), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>27355</v>
+        <v>16812</v>
       </c>
       <c r="C7" t="n">
-        <v>11218.84231805306</v>
+        <v>14915.38565374814</v>
       </c>
       <c r="D7" t="n">
-        <v>-1744.407182869083</v>
+        <v>1952.136152825999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27379</v>
+        <v>21710</v>
       </c>
       <c r="C8" t="n">
-        <v>11090.60929182074</v>
+        <v>10343.01875536946</v>
       </c>
       <c r="D8" t="n">
-        <v>-1872.640209101404</v>
+        <v>-2620.23074555269</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>{'Dependents': np.int64(2)}</t>
+          <t>{'Gender': np.int64(1), 'UndergradMajor': np.int64(2)}</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>20567</v>
+        <v>17057</v>
       </c>
       <c r="C9" t="n">
-        <v>15977.15447741413</v>
+        <v>20268.49410164942</v>
       </c>
       <c r="D9" t="n">
-        <v>3013.904976491984</v>
+        <v>7305.244600727277</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>{'Age': np.int64(3)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>15063</v>
+        <v>16908</v>
       </c>
       <c r="C10" t="n">
-        <v>13540.92143844457</v>
+        <v>19053.63946379748</v>
       </c>
       <c r="D10" t="n">
-        <v>577.6719375224238</v>
+        <v>6090.389962875339</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>{'HDI': np.int64(1)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>25023</v>
+        <v>15406</v>
       </c>
       <c r="C11" t="n">
-        <v>11250.47982698071</v>
+        <v>19129.56707097096</v>
       </c>
       <c r="D11" t="n">
-        <v>-1712.76967394144</v>
+        <v>6166.317570048814</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'Hobby': np.int64(1)}</t>
+          <t>{'Gender': np.int64(1), 'DevType': np.int64(2)}</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20375</v>
+        <v>16852</v>
       </c>
       <c r="C12" t="n">
-        <v>10196.88929291665</v>
+        <v>11505.16324489906</v>
       </c>
       <c r="D12" t="n">
-        <v>-2766.360208005492</v>
+        <v>-1458.086256023089</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'Hobby': np.int64(1)}</t>
+          <t>{'DevType': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>15058</v>
+        <v>16631</v>
       </c>
       <c r="C13" t="n">
-        <v>18331.65921398864</v>
+        <v>10372.18434513095</v>
       </c>
       <c r="D13" t="n">
-        <v>5368.409713066496</v>
+        <v>-2591.065155791193</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Gender': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'DevType': np.int64(2)}</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>22770</v>
+        <v>15175</v>
       </c>
       <c r="C14" t="n">
-        <v>9793.201298325481</v>
+        <v>11257.39659382552</v>
       </c>
       <c r="D14" t="n">
-        <v>-3170.048202596665</v>
+        <v>-1705.852907096631</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'Hobby': np.int64(1)}</t>
+          <t>{'Gender': np.int64(1), 'HoursComputer': np.int64(2)}</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22529</v>
+        <v>15415</v>
       </c>
       <c r="C15" t="n">
-        <v>8905.820842777424</v>
+        <v>11542.48855671203</v>
       </c>
       <c r="D15" t="n">
-        <v>-4057.428658144721</v>
+        <v>-1420.760944210115</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'HoursComputer': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17063</v>
+        <v>15402</v>
       </c>
       <c r="C16" t="n">
-        <v>13434.95249482262</v>
+        <v>10116.13933820374</v>
       </c>
       <c r="D16" t="n">
-        <v>471.7029939004733</v>
+        <v>-2847.110162718405</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>20675</v>
+        <v>24271</v>
       </c>
       <c r="C17" t="n">
-        <v>9822.513984659707</v>
+        <v>11442.32763080001</v>
       </c>
       <c r="D17" t="n">
-        <v>-3140.735516262439</v>
+        <v>-1520.921870122134</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'UndergradMajor': np.int64(2)}</t>
+          <t>{'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>15077</v>
+        <v>25010</v>
       </c>
       <c r="C18" t="n">
-        <v>20114.57186124945</v>
+        <v>12118.41632988031</v>
       </c>
       <c r="D18" t="n">
-        <v>7151.322360327307</v>
+        <v>-844.833171041837</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>{'DevType': np.int64(2), 'Student': np.int64(1)}</t>
+          <t>{'UndergradMajor': np.int64(2)}</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>15397</v>
+        <v>18141</v>
       </c>
       <c r="C19" t="n">
-        <v>12458.93044835459</v>
+        <v>20428.79458652144</v>
       </c>
       <c r="D19" t="n">
-        <v>-504.3190525675527</v>
+        <v>7465.545085599289</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'Gender': np.int64(1)}</t>
+          <t>{'DevType': np.int64(2)}</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>23188</v>
+        <v>17900</v>
       </c>
       <c r="C20" t="n">
-        <v>10204.27301983108</v>
+        <v>12666.05425130746</v>
       </c>
       <c r="D20" t="n">
-        <v>-2758.976481091066</v>
+        <v>-297.1952496146841</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'HoursComputer': np.int64(2)}</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>23264</v>
+        <v>16618</v>
       </c>
       <c r="C21" t="n">
-        <v>10145.98630245002</v>
+        <v>11665.80607096392</v>
       </c>
       <c r="D21" t="n">
-        <v>-2817.263198472123</v>
+        <v>-1297.443429958223</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'Gender': np.int64(1)}</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>16812</v>
+        <v>27355</v>
       </c>
       <c r="C22" t="n">
-        <v>14915.38565374814</v>
+        <v>11218.84231805306</v>
       </c>
       <c r="D22" t="n">
-        <v>1952.136152825999</v>
+        <v>-1744.407182869083</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>21710</v>
+        <v>27379</v>
       </c>
       <c r="C23" t="n">
-        <v>10343.01875536946</v>
+        <v>11090.60929182074</v>
       </c>
       <c r="D23" t="n">
-        <v>-2620.23074555269</v>
+        <v>-1872.640209101404</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'Gender': np.int64(1)}</t>
+          <t>{'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>17057</v>
+        <v>20567</v>
       </c>
       <c r="C24" t="n">
-        <v>20268.49410164942</v>
+        <v>15977.15447741413</v>
       </c>
       <c r="D24" t="n">
-        <v>7305.244600727277</v>
+        <v>3013.904976491984</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'UndergradMajor': np.int64(2)}</t>
+          <t>{'Age': np.int64(3)}</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>16908</v>
+        <v>15063</v>
       </c>
       <c r="C25" t="n">
-        <v>19053.63946379748</v>
+        <v>13540.92143844457</v>
       </c>
       <c r="D25" t="n">
-        <v>6090.389962875339</v>
+        <v>577.6719375224238</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>15406</v>
+        <v>25023</v>
       </c>
       <c r="C26" t="n">
-        <v>19129.56707097096</v>
+        <v>11250.47982698071</v>
       </c>
       <c r="D26" t="n">
-        <v>6166.317570048814</v>
+        <v>-1712.76967394144</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>{'DevType': np.int64(2), 'Gender': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>16852</v>
+        <v>20375</v>
       </c>
       <c r="C27" t="n">
-        <v>11505.16324489906</v>
+        <v>10196.88929291665</v>
       </c>
       <c r="D27" t="n">
-        <v>-1458.086256023089</v>
+        <v>-2766.360208005492</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>{'DevType': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>16631</v>
+        <v>15058</v>
       </c>
       <c r="C28" t="n">
-        <v>10372.18434513095</v>
+        <v>18331.65921398864</v>
       </c>
       <c r="D28" t="n">
-        <v>-2591.065155791193</v>
+        <v>5368.409713066496</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>{'DevType': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'Gender': np.int64(1), 'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>15175</v>
+        <v>22770</v>
       </c>
       <c r="C29" t="n">
-        <v>11257.39659382552</v>
+        <v>9793.201298325481</v>
       </c>
       <c r="D29" t="n">
-        <v>-1705.852907096631</v>
+        <v>-3170.048202596665</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>{'HoursComputer': np.int64(2), 'Gender': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>15415</v>
+        <v>22529</v>
       </c>
       <c r="C30" t="n">
-        <v>11542.48855671203</v>
+        <v>8905.820842777424</v>
       </c>
       <c r="D30" t="n">
-        <v>-1420.760944210115</v>
+        <v>-4057.428658144721</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'HoursComputer': np.int64(2)}</t>
+          <t>{'Dependents': np.int64(2), 'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>15402</v>
+        <v>17063</v>
       </c>
       <c r="C31" t="n">
-        <v>10116.13933820374</v>
+        <v>13434.95249482262</v>
       </c>
       <c r="D31" t="n">
-        <v>-2847.110162718405</v>
+        <v>471.7029939004733</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'Gender': np.int64(1)}</t>
+          <t>{'Gender': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1030,7 +1030,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>{'Dependents': np.int64(2), 'Gender': np.int64(1)}</t>
+          <t>{'Gender': np.int64(1), 'Dependents': np.int64(2)}</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1046,7 +1046,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>{'HDI': np.int64(1), 'Gender': np.int64(1)}</t>
+          <t>{'Gender': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1062,7 +1062,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'Dependents': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -1078,7 +1078,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -1094,7 +1094,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>{'HDI': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -1110,7 +1110,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'Hobby': np.int64(1), 'Gender': np.int64(1)}</t>
+          <t>{'Gender': np.int64(1), 'Hobby': np.int64(1), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1126,7 +1126,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'Hobby': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1142,7 +1142,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'Hobby': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1158,7 +1158,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'Hobby': np.int64(1), 'Gender': np.int64(1)}</t>
+          <t>{'Gender': np.int64(1), 'Hobby': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1174,7 +1174,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>{'Dependents': np.int64(2), 'Hobby': np.int64(1), 'Gender': np.int64(1)}</t>
+          <t>{'Gender': np.int64(1), 'Dependents': np.int64(2), 'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1190,7 +1190,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'HDI': np.int64(1), 'Gender': np.int64(1)}</t>
+          <t>{'Gender': np.int64(1), 'Hobby': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1206,7 +1206,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'Hobby': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'Dependents': np.int64(2), 'Hobby': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1222,7 +1222,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'Hobby': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1238,7 +1238,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'Gender': np.int64(1)}</t>
+          <t>{'Gender': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1254,257 +1254,257 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>{'Dependents': np.int64(2), 'Student': np.int64(1), 'Gender': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'Gender': np.int64(1), 'HDI': np.int64(1), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>15339</v>
+        <v>15779</v>
       </c>
       <c r="C47" t="n">
-        <v>12445.08873558062</v>
+        <v>5234.178807957504</v>
       </c>
       <c r="D47" t="n">
-        <v>-518.1607653415285</v>
+        <v>-7729.070692964642</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'HDI': np.int64(1), 'Gender': np.int64(1)}</t>
+          <t>{'Gender': np.int64(1), 'Dependents': np.int64(2), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>20079</v>
+        <v>15339</v>
       </c>
       <c r="C48" t="n">
-        <v>8320.806949419126</v>
+        <v>12445.08873558062</v>
       </c>
       <c r="D48" t="n">
-        <v>-4642.44255150302</v>
+        <v>-518.1607653415285</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'Gender': np.int64(1), 'HDI': np.int64(1), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>15301</v>
+        <v>20079</v>
       </c>
       <c r="C49" t="n">
-        <v>12493.22924053899</v>
+        <v>8320.806949419126</v>
       </c>
       <c r="D49" t="n">
-        <v>-470.0202603831513</v>
+        <v>-4642.44255150302</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Dependents': np.int64(2), 'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>20128</v>
+        <v>15301</v>
       </c>
       <c r="C50" t="n">
-        <v>8058.492947675052</v>
+        <v>12493.22924053899</v>
       </c>
       <c r="D50" t="n">
-        <v>-4904.756553247094</v>
+        <v>-470.0202603831513</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'UndergradMajor': np.int64(2), 'Gender': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>16152</v>
+        <v>20128</v>
       </c>
       <c r="C51" t="n">
-        <v>19730.73379293201</v>
+        <v>8058.492947675052</v>
       </c>
       <c r="D51" t="n">
-        <v>6767.48429200986</v>
+        <v>-4904.756553247094</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>{'DevType': np.int64(2), 'SexualOrientation': np.int64(1), 'Gender': np.int64(1)}</t>
+          <t>{'Gender': np.int64(1), 'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>15929</v>
+        <v>16152</v>
       </c>
       <c r="C52" t="n">
-        <v>10271.32109283204</v>
+        <v>19730.73379293201</v>
       </c>
       <c r="D52" t="n">
-        <v>-2691.928408090102</v>
+        <v>6767.48429200986</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>{'Dependents': np.int64(2), 'SexualOrientation': np.int64(1), 'Gender': np.int64(1)}</t>
+          <t>{'Gender': np.int64(1), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>17563</v>
+        <v>15929</v>
       </c>
       <c r="C53" t="n">
-        <v>12896.98458729801</v>
+        <v>10271.32109283204</v>
       </c>
       <c r="D53" t="n">
-        <v>-66.26491362413253</v>
+        <v>-2691.928408090102</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'HDI': np.int64(1), 'Gender': np.int64(1)}</t>
+          <t>{'Gender': np.int64(1), 'Dependents': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>21900</v>
+        <v>17563</v>
       </c>
       <c r="C54" t="n">
-        <v>8524.583644570461</v>
+        <v>12896.98458729801</v>
       </c>
       <c r="D54" t="n">
-        <v>-4438.665856351685</v>
+        <v>-66.26491362413253</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>{'Dependents': np.int64(2), 'HDI': np.int64(1), 'Gender': np.int64(1)}</t>
+          <t>{'Gender': np.int64(1), 'HDI': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>15786</v>
+        <v>21900</v>
       </c>
       <c r="C55" t="n">
-        <v>12632.85656038428</v>
+        <v>8524.583644570461</v>
       </c>
       <c r="D55" t="n">
-        <v>-330.392940537864</v>
+        <v>-4438.665856351685</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'HDI': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'Gender': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>15673</v>
+        <v>15786</v>
       </c>
       <c r="C56" t="n">
-        <v>12988.61598577243</v>
+        <v>12632.85656038428</v>
       </c>
       <c r="D56" t="n">
-        <v>25.36648485028491</v>
+        <v>-330.392940537864</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'Hobby': np.int64(1), 'Gender': np.int64(1)}</t>
+          <t>{'Dependents': np.int64(2), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>18136</v>
+        <v>15673</v>
       </c>
       <c r="C57" t="n">
-        <v>7283.726461989329</v>
+        <v>12988.61598577243</v>
       </c>
       <c r="D57" t="n">
-        <v>-5679.523038932816</v>
+        <v>25.36648485028491</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'Hobby': np.int64(1), 'HDI': np.int64(1), 'Gender': np.int64(1)}</t>
+          <t>{'Gender': np.int64(1), 'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>16648</v>
+        <v>18136</v>
       </c>
       <c r="C58" t="n">
-        <v>6709.311194402443</v>
+        <v>7283.726461989329</v>
       </c>
       <c r="D58" t="n">
-        <v>-6253.938306519703</v>
+        <v>-5679.523038932816</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'Hobby': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Gender': np.int64(1), 'Hobby': np.int64(1), 'Student': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>16486</v>
+        <v>16648</v>
       </c>
       <c r="C59" t="n">
-        <v>5663.715061677382</v>
+        <v>6709.311194402443</v>
       </c>
       <c r="D59" t="n">
-        <v>-7299.534439244764</v>
+        <v>-6253.938306519703</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>{'SexualOrientation': np.int64(1), 'Hobby': np.int64(1), 'HDI': np.int64(1), 'Gender': np.int64(1)}</t>
+          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>18306</v>
+        <v>16486</v>
       </c>
       <c r="C60" t="n">
-        <v>6562.835401713361</v>
+        <v>5663.715061677382</v>
       </c>
       <c r="D60" t="n">
-        <v>-6400.414099208785</v>
+        <v>-7299.534439244764</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1), 'Gender': np.int64(1)}</t>
+          <t>{'Gender': np.int64(1), 'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>19043</v>
+        <v>18306</v>
       </c>
       <c r="C61" t="n">
-        <v>7319.305231565133</v>
+        <v>6562.835401713361</v>
       </c>
       <c r="D61" t="n">
-        <v>-5643.944269357013</v>
+        <v>-6400.414099208785</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>{'Student': np.int64(1), 'Gender': np.int64(1), 'SexualOrientation': np.int64(1), 'Hobby': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Gender': np.int64(1), 'HDI': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>15779</v>
+        <v>19043</v>
       </c>
       <c r="C62" t="n">
-        <v>5234.178807957504</v>
+        <v>7319.305231565133</v>
       </c>
       <c r="D62" t="n">
-        <v>-7729.070692964642</v>
+        <v>-5643.944269357013</v>
       </c>
     </row>
   </sheetData>

--- a/algorithms_results/Yardens_results/MultiProcessing_subgroups_results_delta_15000_0.xlsx
+++ b/algorithms_results/Yardens_results/MultiProcessing_subgroups_results_delta_15000_0.xlsx
@@ -534,7 +534,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -550,7 +550,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'Student': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'UndergradMajor': np.int64(2)}</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -582,7 +582,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>{'Gender': np.int64(1), 'Student': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'Gender': np.int64(1)}</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -646,7 +646,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>{'Gender': np.int64(1), 'UndergradMajor': np.int64(2)}</t>
+          <t>{'UndergradMajor': np.int64(2), 'Gender': np.int64(1)}</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -662,7 +662,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'UndergradMajor': np.int64(2)}</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -678,7 +678,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>{'UndergradMajor': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'UndergradMajor': np.int64(2)}</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -694,7 +694,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>{'Gender': np.int64(1), 'DevType': np.int64(2)}</t>
+          <t>{'DevType': np.int64(2), 'Gender': np.int64(1)}</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -710,7 +710,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>{'DevType': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'DevType': np.int64(2)}</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -758,7 +758,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>{'HoursComputer': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'HoursComputer': np.int64(2)}</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -934,7 +934,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -982,7 +982,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -1014,7 +1014,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>{'Gender': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'Gender': np.int64(1)}</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -1030,7 +1030,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>{'Gender': np.int64(1), 'Dependents': np.int64(2)}</t>
+          <t>{'Dependents': np.int64(2), 'Gender': np.int64(1)}</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -1046,7 +1046,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>{'Gender': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'Gender': np.int64(1)}</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -1110,7 +1110,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>{'Gender': np.int64(1), 'Hobby': np.int64(1), 'Student': np.int64(1)}</t>
+          <t>{'Gender': np.int64(1), 'Student': np.int64(1), 'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -1126,7 +1126,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -1142,7 +1142,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'Student': np.int64(1), 'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -1158,7 +1158,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>{'Gender': np.int64(1), 'Hobby': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Gender': np.int64(1), 'SexualOrientation': np.int64(1), 'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -1174,7 +1174,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>{'Gender': np.int64(1), 'Dependents': np.int64(2), 'Hobby': np.int64(1)}</t>
+          <t>{'Dependents': np.int64(2), 'Gender': np.int64(1), 'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -1190,7 +1190,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>{'Gender': np.int64(1), 'Hobby': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'Gender': np.int64(1), 'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -1206,7 +1206,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>{'Dependents': np.int64(2), 'Hobby': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Dependents': np.int64(2), 'SexualOrientation': np.int64(1), 'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -1222,7 +1222,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'SexualOrientation': np.int64(1), 'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -1238,7 +1238,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>{'Gender': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'Gender': np.int64(1)}</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -1254,7 +1254,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'Gender': np.int64(1), 'HDI': np.int64(1), 'Student': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'SexualOrientation': np.int64(1), 'Gender': np.int64(1), 'Hobby': np.int64(1), 'Student': np.int64(1)}</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -1270,7 +1270,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>{'Gender': np.int64(1), 'Dependents': np.int64(2), 'Student': np.int64(1)}</t>
+          <t>{'Dependents': np.int64(2), 'Student': np.int64(1), 'Gender': np.int64(1)}</t>
         </is>
       </c>
       <c r="B48" t="n">
@@ -1286,7 +1286,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>{'Gender': np.int64(1), 'HDI': np.int64(1), 'Student': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'Student': np.int64(1), 'Gender': np.int64(1)}</t>
         </is>
       </c>
       <c r="B49" t="n">
@@ -1302,7 +1302,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>{'Dependents': np.int64(2), 'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'Dependents': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -1318,7 +1318,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>{'HDI': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'HDI': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -1334,7 +1334,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>{'Gender': np.int64(1), 'UndergradMajor': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'UndergradMajor': np.int64(2), 'Gender': np.int64(1)}</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -1350,7 +1350,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>{'Gender': np.int64(1), 'DevType': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'SexualOrientation': np.int64(1), 'DevType': np.int64(2), 'Gender': np.int64(1)}</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -1366,7 +1366,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>{'Gender': np.int64(1), 'Dependents': np.int64(2), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Dependents': np.int64(2), 'SexualOrientation': np.int64(1), 'Gender': np.int64(1)}</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -1382,7 +1382,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>{'Gender': np.int64(1), 'HDI': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'SexualOrientation': np.int64(1), 'Gender': np.int64(1)}</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -1398,7 +1398,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>{'Gender': np.int64(1), 'Dependents': np.int64(2), 'HDI': np.int64(1)}</t>
+          <t>{'Dependents': np.int64(2), 'HDI': np.int64(1), 'Gender': np.int64(1)}</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -1414,7 +1414,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>{'Dependents': np.int64(2), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Dependents': np.int64(2), 'HDI': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -1430,7 +1430,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>{'Gender': np.int64(1), 'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'Gender': np.int64(1), 'SexualOrientation': np.int64(1), 'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -1446,7 +1446,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>{'Gender': np.int64(1), 'Hobby': np.int64(1), 'Student': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'Gender': np.int64(1), 'Student': np.int64(1), 'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -1462,7 +1462,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>{'Hobby': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'HDI': np.int64(1), 'SexualOrientation': np.int64(1), 'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -1478,7 +1478,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>{'Gender': np.int64(1), 'Hobby': np.int64(1), 'SexualOrientation': np.int64(1), 'HDI': np.int64(1)}</t>
+          <t>{'HDI': np.int64(1), 'Gender': np.int64(1), 'SexualOrientation': np.int64(1), 'Hobby': np.int64(1)}</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -1494,7 +1494,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>{'Gender': np.int64(1), 'HDI': np.int64(1), 'Student': np.int64(1), 'SexualOrientation': np.int64(1)}</t>
+          <t>{'Student': np.int64(1), 'HDI': np.int64(1), 'SexualOrientation': np.int64(1), 'Gender': np.int64(1)}</t>
         </is>
       </c>
       <c r="B62" t="n">
